--- a/report/experiments.xlsx
+++ b/report/experiments.xlsx
@@ -1,41 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trileroman\Desktop\UPC - Deep Learning\proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcano\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0FFA33-5243-482E-A770-29E95D44D169}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4420" tabRatio="620" activeTab="2"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="806" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VGG 11" sheetId="12" r:id="rId1"/>
-    <sheet name="VGG 10" sheetId="11" r:id="rId2"/>
-    <sheet name="VGG-9" sheetId="10" r:id="rId3"/>
-    <sheet name="VGG-8" sheetId="2" r:id="rId4"/>
-    <sheet name="VGG-7" sheetId="8" r:id="rId5"/>
-    <sheet name="VGG-6" sheetId="1" r:id="rId6"/>
-    <sheet name="VGG-5" sheetId="7" r:id="rId7"/>
-    <sheet name="VGG -4" sheetId="6" r:id="rId8"/>
-    <sheet name="VGG-3" sheetId="4" r:id="rId9"/>
-    <sheet name="VGG-2" sheetId="5" r:id="rId10"/>
-    <sheet name=" VGG - 1" sheetId="3" r:id="rId11"/>
-    <sheet name="MLP" sheetId="9" r:id="rId12"/>
+    <sheet name="RESUMEN" sheetId="21" r:id="rId1"/>
+    <sheet name="VGG 19" sheetId="20" r:id="rId2"/>
+    <sheet name="VGG18" sheetId="19" r:id="rId3"/>
+    <sheet name="VGG 17" sheetId="18" r:id="rId4"/>
+    <sheet name="VGG 16" sheetId="16" r:id="rId5"/>
+    <sheet name="VGG 15" sheetId="15" r:id="rId6"/>
+    <sheet name="VGG 14" sheetId="17" r:id="rId7"/>
+    <sheet name="VGG 13" sheetId="14" r:id="rId8"/>
+    <sheet name="VGG 12" sheetId="13" r:id="rId9"/>
+    <sheet name="VGG 11" sheetId="12" r:id="rId10"/>
+    <sheet name="VGG 10" sheetId="11" r:id="rId11"/>
+    <sheet name="VGG-9" sheetId="10" r:id="rId12"/>
+    <sheet name="VGG-8" sheetId="2" r:id="rId13"/>
+    <sheet name="VGG-7" sheetId="8" r:id="rId14"/>
+    <sheet name="VGG-6" sheetId="1" r:id="rId15"/>
+    <sheet name="VGG-5" sheetId="7" r:id="rId16"/>
+    <sheet name="VGG -4" sheetId="6" r:id="rId17"/>
+    <sheet name="VGG-3" sheetId="4" r:id="rId18"/>
+    <sheet name="VGG-2" sheetId="5" r:id="rId19"/>
+    <sheet name=" VGG - 1" sheetId="3" r:id="rId20"/>
+    <sheet name="MLP" sheetId="9" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Trileroman</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,12 +74,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Trileroman</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="91">
   <si>
     <t>Time</t>
   </si>
@@ -250,13 +260,136 @@
   </si>
   <si>
     <t>addfaaaa</t>
+  </si>
+  <si>
+    <t>20190701-123958-</t>
+  </si>
+  <si>
+    <t>1ea656d6</t>
+  </si>
+  <si>
+    <t>categorical_hinge</t>
+  </si>
+  <si>
+    <t>Image TF Crop</t>
+  </si>
+  <si>
+    <t>Image Standarization</t>
+  </si>
+  <si>
+    <t>20190701-114457-</t>
+  </si>
+  <si>
+    <t>3fd7b35b</t>
+  </si>
+  <si>
+    <t>20190701-074652-</t>
+  </si>
+  <si>
+    <t>8c3e023d</t>
+  </si>
+  <si>
+    <t>20190701-142414-</t>
+  </si>
+  <si>
+    <t>808fd7e5</t>
+  </si>
+  <si>
+    <t>20190701-133332-</t>
+  </si>
+  <si>
+    <t>2281c77a</t>
+  </si>
+  <si>
+    <t>20190701-103339-</t>
+  </si>
+  <si>
+    <t>6462ea6d</t>
+  </si>
+  <si>
+    <t>20190701-075912-</t>
+  </si>
+  <si>
+    <t>fa33917d</t>
+  </si>
+  <si>
+    <t>20190630-174244-</t>
+  </si>
+  <si>
+    <t>1045974a</t>
+  </si>
+  <si>
+    <t>20190630-221728-</t>
+  </si>
+  <si>
+    <t>1580de8b</t>
+  </si>
+  <si>
+    <t>20190701-181322-</t>
+  </si>
+  <si>
+    <t>8ebae275</t>
+  </si>
+  <si>
+    <t>Dropout in the merged model</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Activation in the merged model</t>
+  </si>
+  <si>
+    <t>relu</t>
+  </si>
+  <si>
+    <t>VGG19</t>
+  </si>
+  <si>
+    <t>VGG15</t>
+  </si>
+  <si>
+    <t>VGG14</t>
+  </si>
+  <si>
+    <t>VGG13</t>
+  </si>
+  <si>
+    <t>VGG12</t>
+  </si>
+  <si>
+    <t>VGG11</t>
+  </si>
+  <si>
+    <t>VGG9</t>
+  </si>
+  <si>
+    <t>VGG8</t>
+  </si>
+  <si>
+    <t>VGG5</t>
+  </si>
+  <si>
+    <t>VGG3</t>
+  </si>
+  <si>
+    <t>tanh</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Time for epoch</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,8 +537,16 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +732,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -752,10 +905,37 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -816,28 +996,122 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139699</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4044950" y="381001"/>
+          <a:ext cx="3174999" cy="2381249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>26989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7645400" y="374651"/>
+          <a:ext cx="3219450" cy="2414588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>112184</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>14111</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220133</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5844117" y="2448277"/>
-          <a:ext cx="3263900" cy="2518834"/>
+          <a:off x="4914900" y="2781300"/>
+          <a:ext cx="4214283" cy="2139950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -873,24 +1147,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Una cambiado el crop (</a:t>
+            <a:t>Hacemos</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> en lugar del reshape) </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Observamos que el desempeño</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> de la CPU emperoa con el sucederse de los batches, mientras que la GPU no se entera.</a:t>
+            <a:t> un training con un mix de los mejores parámetros que hemmos tenidos ahora, pero cambiando la función de activación por u na RELU en lugar de una TANH.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -899,7 +1160,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Despuès de lanzar el proceso un par de veces, llegamos a la conclusión de que podría ser por los batches que tiene que cargar la CPU ya que al hacer el crop y trabajar con batches de 50 le lleva su tiempo tener el batch preparado para pasarlo a la CPU</a:t>
+            <a:t>Sería identico al VGG-7, excepto por la función de activación y parece que mejora ligeramente la Loss y va por debajo de la del VGG-7 y querría seguir bajando.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -908,8 +1169,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>SOl. reducir el tamaño de batch a 10, en lugar de 50 por ejemplo.</a:t>
+            <a:t>La accuracy es ascendente, mientras que en la VGG se queda plana, por lo que la idea sería hacer más epochs para ver si a tendencia mejora aún más.</a:t>
           </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -920,327 +1184,6 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>74041</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>5779</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3187700" y="74041"/>
-          <a:ext cx="4083050" cy="3062288"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>21166</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>342138</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7418916" y="76200"/>
-          <a:ext cx="3978572" cy="3117850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15522</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33161</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>107893</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>172290</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3246966" y="216605"/>
-          <a:ext cx="4339816" cy="3257685"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>206022</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38807</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>338668</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>23955</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7684911" y="222251"/>
-          <a:ext cx="4380090" cy="3287148"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>70555</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28222</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>599722</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>112888</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5729111" y="3697111"/>
-          <a:ext cx="2349500" cy="1185333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Este está</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> repetido. = al 34e201c9 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Hay que eliminarlo.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>21832</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>17637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>405642</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6981432" y="201787"/>
-          <a:ext cx="3431810" cy="2433463"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>603251</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>40677</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2686051" y="196850"/>
-          <a:ext cx="3727450" cy="2421927"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1257,7 +1200,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1295,7 +1244,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1333,7 +1288,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1410,7 +1371,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1420,20 +1381,26 @@
       <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>282222</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>176389</xdr:rowOff>
+      <xdr:rowOff>77611</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5192888" y="2956277"/>
-          <a:ext cx="3139723" cy="2723445"/>
+          <a:ext cx="5856112" cy="2624667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1491,15 +1458,17 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>no se justifica su empleo con un dataset reducido.</a:t>
+            <a:t>Por el contrario las predicciónes de la inferencia, empiezan a salir  ¿¿mejor. ??</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Si disponemos de tienpo, comprobar con el dataset full.</a:t>
+            <a:t>Si tenemos tiempo intentar probar este modelo con todo el fulldataset.</a:t>
           </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1520,7 +1489,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1558,7 +1533,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1584,7 +1565,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1601,7 +1582,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1645,7 +1632,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1689,7 +1682,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1736,10 +1735,6 @@
           <a:br>
             <a:rPr lang="es-ES"/>
           </a:br>
-          <a:r>
-            <a:rPr lang="es-ES"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="es-ES"/>
           </a:br>
@@ -1750,10 +1745,6 @@
           <a:br>
             <a:rPr lang="es-ES"/>
           </a:br>
-          <a:r>
-            <a:rPr lang="es-ES"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="es-ES"/>
           </a:br>
@@ -1764,10 +1755,6 @@
           <a:br>
             <a:rPr lang="es-ES"/>
           </a:br>
-          <a:r>
-            <a:rPr lang="es-ES"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="es-ES"/>
           </a:br>
@@ -1784,7 +1771,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1801,7 +1788,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1839,7 +1832,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1865,7 +1864,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1882,7 +1881,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1926,7 +1931,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1958,7 +1969,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1975,7 +1986,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2013,7 +2030,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2051,7 +2074,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2117,7 +2146,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2134,7 +2163,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2172,7 +2207,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2210,7 +2251,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2257,10 +2304,6 @@
           <a:br>
             <a:rPr lang="es-ES"/>
           </a:br>
-          <a:r>
-            <a:rPr lang="es-ES"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="es-ES"/>
           </a:br>
@@ -2271,10 +2314,6 @@
           <a:br>
             <a:rPr lang="es-ES"/>
           </a:br>
-          <a:r>
-            <a:rPr lang="es-ES"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="es-ES"/>
           </a:br>
@@ -2285,10 +2324,6 @@
           <a:br>
             <a:rPr lang="es-ES"/>
           </a:br>
-          <a:r>
-            <a:rPr lang="es-ES"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="es-ES"/>
           </a:br>
@@ -2305,7 +2340,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2322,7 +2357,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2360,7 +2401,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2375,6 +2422,1647 @@
         <a:xfrm>
           <a:off x="7109881" y="139700"/>
           <a:ext cx="3893905" cy="2990850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3187700" y="74041"/>
+          <a:ext cx="4083050" cy="3062288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>21166</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342138</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7418916" y="76200"/>
+          <a:ext cx="3978572" cy="3117850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15522</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107893</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>172290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3246966" y="216605"/>
+          <a:ext cx="4339816" cy="3257685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>206022</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>338668</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7684911" y="222251"/>
+          <a:ext cx="4380090" cy="3287148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>70555</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>599722</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>112888</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5729111" y="3697111"/>
+          <a:ext cx="2349500" cy="1185333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Este está</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> repetido. = al 34e201c9 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Hay que eliminarlo.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>84665</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="241300"/>
+          <a:ext cx="3132665" cy="2349499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251884</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>520701</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5738284" y="184150"/>
+          <a:ext cx="3316817" cy="2487613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21832</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>43037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>405642</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981432" y="227187"/>
+          <a:ext cx="3431810" cy="2433463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>69851</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>40677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2692401" y="196850"/>
+          <a:ext cx="3727450" cy="2421927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>166455</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2520950" y="177800"/>
+          <a:ext cx="3233505" cy="2425129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="247650"/>
+          <a:ext cx="3200400" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>515705</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2387600" y="133350"/>
+          <a:ext cx="3614505" cy="2710879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>75438</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="101600"/>
+          <a:ext cx="3656838" cy="2742629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>475488</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>43879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3270250" y="196850"/>
+          <a:ext cx="3479038" cy="2609279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>146051</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>153989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7052733" y="190500"/>
+          <a:ext cx="3634318" cy="2725739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>347133</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4845050" y="2965450"/>
+          <a:ext cx="4214283" cy="2139950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Abandonamos la loss HINGE y volvemos a la crossentropy. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Hemos hecho un training menor , para ver si eso acelera el proceso ya que entre esta y la anterior, hemos tenido un trainig abortado porque iba muy lento.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>La idea era ver si el tamaño de batch size menor mejoraba el tema, pero no ha variado ni la CPU ni la GPU respecto a los batches de 50. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Lo que la lía parda es el CROP.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Volvemos a los batches de 50.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>527051</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3365501" y="222250"/>
+          <a:ext cx="3536950" cy="2652713"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>265938</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>24829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="190500"/>
+          <a:ext cx="3707638" cy="2780729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>556683</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5156200" y="3130550"/>
+          <a:ext cx="4214283" cy="2139950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Repetimos el modelo anterior cambiando el tamañao de step de la learning rate por uno mucho más pequeño (1e-5). Para ver si mejoraba el modelo anterior</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Vemos que las curvas son raras. Preguntar porque....!!!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3536950" y="222251"/>
+          <a:ext cx="3505200" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>21166</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537631</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7234766" y="184151"/>
+          <a:ext cx="3564465" cy="2673349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>556683</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4775200" y="3130550"/>
+          <a:ext cx="4214283" cy="2139950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Repetimos el modelo anterior cambiando el tamañao de step de la learning rate por uno más pequeño.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>La loss emejora de forma sustancial aunque la forma de L hace pensar que no está superando bien el umbral de activación. De ahí que sea plano ( eso es que no aprende???) . Podría ser un vanishing gradient?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>La accuracy mejora también pero no vemos bien porqué???</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="184151"/>
+          <a:ext cx="3911599" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>169863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219950" y="169863"/>
+          <a:ext cx="3937000" cy="2952750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21166</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>594783</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>182033</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4818944" y="3153834"/>
+          <a:ext cx="4214283" cy="2348088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Quitamos el</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> CROP.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Hacemos varios cambios para ver si mejora mucho o que hace....y luego ir ajustando.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Ponemos Image Standarization</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Ponemos categorical hinge en lugar de crossentropy.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Aumentamos el tamaño de step del learning rate.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>La loss empeora en forma de rebotes seguramente debido a que al aumentar el tamaño de la learning rate , rebota entorno a un mínimo local.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>150283</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134056</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14110</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5611283" y="2427111"/>
+          <a:ext cx="4231217" cy="2356555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Una cambiado el crop (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> en lugar del reshape) para ver que pasa:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Observamos que el desempeño</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> de la CPU empeora con el sucederse de los batches, mientras que la GPU no se entera.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>La maquina se queda frita y tenemos que matar el proceso de training. Pillamos las curvas del Tensorboard directamente porque al no acabar el proceso no las crea en fichero.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Despuès de lanzar el proceso un par de veces, llegamos a la conclusión de que podría ser por los batches que tiene que cargar la CPU ya que al hacer el crop y trabajar con batches de 50 le lleva su tiempo tener el batch preparado para pasarlo a la CPU</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>SOl. reducir el tamaño de batch a 10, en lugar de 50 por ejemplo.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14110</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>183444</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>93180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762499" y="211666"/>
+          <a:ext cx="3203223" cy="2082847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>278732</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>162278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8389056" y="183444"/>
+          <a:ext cx="3312621" cy="2180167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2648,317 +4336,1167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="1" max="1" width="29.69140625" customWidth="1"/>
+    <col min="2" max="7" width="23.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.15234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.23046875" customWidth="1"/>
+    <col min="11" max="11" width="23.23046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="1">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1">
+        <v>50</v>
+      </c>
+      <c r="K4" s="2">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="b">
+      <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E8" s="2">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1">
+        <v>13</v>
+      </c>
+      <c r="L8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" s="1">
+        <v>96</v>
+      </c>
+      <c r="D13" s="1">
+        <v>96</v>
+      </c>
+      <c r="E13" s="1">
+        <v>96</v>
+      </c>
+      <c r="F13" s="1">
+        <v>96</v>
+      </c>
+      <c r="G13" s="1">
+        <v>96</v>
+      </c>
+      <c r="H13" s="1">
+        <v>96</v>
+      </c>
+      <c r="I13" s="1">
+        <v>96</v>
+      </c>
+      <c r="J13" s="1">
+        <v>96</v>
+      </c>
+      <c r="K13" s="1">
+        <v>96</v>
+      </c>
+      <c r="L13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" s="1">
+        <v>512</v>
+      </c>
+      <c r="D14" s="1">
+        <v>512</v>
+      </c>
+      <c r="E14" s="1">
+        <v>512</v>
+      </c>
+      <c r="F14" s="1">
+        <v>512</v>
+      </c>
+      <c r="G14" s="1">
+        <v>512</v>
+      </c>
+      <c r="H14" s="1">
+        <v>512</v>
+      </c>
+      <c r="I14" s="1">
+        <v>512</v>
+      </c>
+      <c r="J14" s="1">
+        <v>512</v>
+      </c>
+      <c r="K14" s="1">
+        <v>512</v>
+      </c>
+      <c r="L14" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1024</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1024</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1024</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1024</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1024</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1024</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1024</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1">
+        <v>6</v>
+      </c>
+      <c r="K17" s="1">
+        <v>6</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="H20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>4.45</v>
+      </c>
+      <c r="C24">
+        <v>3.65</v>
+      </c>
+      <c r="D24">
+        <v>4.63</v>
+      </c>
+      <c r="E24">
+        <v>4.43</v>
+      </c>
+      <c r="F24">
+        <v>4.5</v>
+      </c>
+      <c r="G24">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="I24">
+        <v>1.01</v>
+      </c>
+      <c r="J24">
+        <v>2.56</v>
+      </c>
+      <c r="K24">
+        <v>3.78</v>
+      </c>
+      <c r="L24">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25">
+        <v>0.22</v>
+      </c>
+      <c r="C25">
+        <v>0.26</v>
+      </c>
+      <c r="D25">
+        <v>0.2</v>
+      </c>
+      <c r="E25">
+        <v>0.21</v>
+      </c>
+      <c r="F25">
+        <v>0.24</v>
+      </c>
+      <c r="G25">
+        <v>0.24</v>
+      </c>
+      <c r="I25">
+        <v>0.23</v>
+      </c>
+      <c r="J25">
+        <v>0.12</v>
+      </c>
+      <c r="K25">
+        <v>0.24</v>
+      </c>
+      <c r="L25">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26">
+        <v>103</v>
+      </c>
+      <c r="C26">
+        <v>98</v>
+      </c>
+      <c r="D26">
+        <v>101</v>
+      </c>
+      <c r="E26">
+        <v>102</v>
+      </c>
+      <c r="F26">
+        <v>107</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>105</v>
+      </c>
+      <c r="J26">
+        <v>107</v>
+      </c>
+      <c r="K26">
+        <v>19</v>
+      </c>
+      <c r="L26">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.53515625" customWidth="1"/>
+    <col min="2" max="2" width="22.23046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.15234375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="b">
+      <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2968,112 +5506,1728 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.53515625" customWidth="1"/>
+    <col min="2" max="2" width="22.23046875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4609375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.15234375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.84375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.84375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.15234375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.84375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.84375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.84375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="27.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.84375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:A12"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.84375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="b">
+      <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3084,97 +7238,100 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" customWidth="1"/>
+    <col min="2" max="2" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3186,326 +7343,178 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.84375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="b">
+      <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1024</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3515,36 +7524,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3552,7 +7561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3560,7 +7569,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3568,7 +7577,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3576,7 +7585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3584,15 +7593,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3600,7 +7609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3608,15 +7617,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3624,7 +7633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3632,7 +7641,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3640,15 +7649,15 @@
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3656,12 +7665,36 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17">
         <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3671,76 +7704,76 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.84375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="b">
+      <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3748,23 +7781,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3772,52 +7805,76 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1024</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
-        <v>6</v>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3827,153 +7884,178 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.4609375" customWidth="1"/>
+    <col min="2" max="2" width="21.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="b">
+      <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1024</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3983,153 +8065,177 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="1" max="1" width="20.84375" customWidth="1"/>
+    <col min="2" max="2" width="18.15234375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="b">
+      <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1024</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4139,153 +8245,177 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.69140625" customWidth="1"/>
+    <col min="2" max="2" width="20.4609375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="b">
+      <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1024</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4295,153 +8425,177 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.84375" customWidth="1"/>
+    <col min="2" max="2" width="18.15234375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="b">
+      <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1024</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/report/experiments.xlsx
+++ b/report/experiments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcano\Documents\workspace\aidl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcano\Documents\workspace\aidl\UPC-AIDL-VQA\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03ECC6F-F961-4D08-BCE4-AA03021D6560}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90AD044-5731-495B-A3F3-7F833A92ECD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,67 +18,30 @@
     <sheet name="VGG 23" sheetId="27" r:id="rId3"/>
     <sheet name="VGG 22" sheetId="25" r:id="rId4"/>
     <sheet name="VGG 21" sheetId="24" r:id="rId5"/>
-    <sheet name="VGG 20" sheetId="23" r:id="rId6"/>
-    <sheet name="VGG 19" sheetId="20" r:id="rId7"/>
-    <sheet name="VGG 18" sheetId="16" r:id="rId8"/>
-    <sheet name="VGG 17" sheetId="17" r:id="rId9"/>
-    <sheet name="VGG 16" sheetId="13" r:id="rId10"/>
-    <sheet name="VGG 15" sheetId="14" r:id="rId11"/>
-    <sheet name="VGG 14" sheetId="18" r:id="rId12"/>
-    <sheet name="VGG 13" sheetId="19" r:id="rId13"/>
-    <sheet name="VGG 12" sheetId="15" r:id="rId14"/>
-    <sheet name="VGG 11" sheetId="12" r:id="rId15"/>
-    <sheet name="VGG 10" sheetId="10" r:id="rId16"/>
-    <sheet name="VGG 9" sheetId="11" r:id="rId17"/>
-    <sheet name="VGG 8" sheetId="2" r:id="rId18"/>
-    <sheet name="VGG 7" sheetId="8" r:id="rId19"/>
-    <sheet name="VGG 6" sheetId="1" r:id="rId20"/>
-    <sheet name="VGG 5" sheetId="7" r:id="rId21"/>
-    <sheet name="VGG 4" sheetId="6" r:id="rId22"/>
-    <sheet name="VGG 3" sheetId="5" r:id="rId23"/>
-    <sheet name="VGG 2" sheetId="4" r:id="rId24"/>
-    <sheet name=" VGG 1" sheetId="3" r:id="rId25"/>
-    <sheet name="MLP" sheetId="9" r:id="rId26"/>
+    <sheet name="VGG 19" sheetId="20" r:id="rId6"/>
+    <sheet name="VGG 18" sheetId="16" r:id="rId7"/>
+    <sheet name="VGG 17" sheetId="17" r:id="rId8"/>
+    <sheet name="VGG 16" sheetId="14" r:id="rId9"/>
+    <sheet name="VGG 15" sheetId="13" r:id="rId10"/>
+    <sheet name="VGG 14" sheetId="18" r:id="rId11"/>
+    <sheet name="VGG 13" sheetId="19" r:id="rId12"/>
+    <sheet name="VGG 12" sheetId="15" r:id="rId13"/>
+    <sheet name="VGG 11" sheetId="12" r:id="rId14"/>
+    <sheet name="VGG 10" sheetId="10" r:id="rId15"/>
+    <sheet name="VGG 8" sheetId="2" r:id="rId16"/>
+    <sheet name="VGG 7" sheetId="8" r:id="rId17"/>
+    <sheet name="VGG 6" sheetId="1" r:id="rId18"/>
+    <sheet name="VGG 5" sheetId="7" r:id="rId19"/>
+    <sheet name="VGG 4" sheetId="6" r:id="rId20"/>
+    <sheet name="VGG 3" sheetId="5" r:id="rId21"/>
+    <sheet name="VGG 2" sheetId="4" r:id="rId22"/>
+    <sheet name="MLP" sheetId="9" r:id="rId23"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Trileroman</author>
-  </authors>
-  <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Trileroman:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Son 500 batches de 50 imágenes por batch</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Trileroman</author>
@@ -115,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="107">
   <si>
     <t>Time</t>
   </si>
@@ -195,12 +158,6 @@
     <t>85d506ee</t>
   </si>
   <si>
-    <t>20190629-192742-</t>
-  </si>
-  <si>
-    <t>0016f4a2</t>
-  </si>
-  <si>
     <t>0.001</t>
   </si>
   <si>
@@ -244,12 +201,6 @@
   </si>
   <si>
     <t>Dense layers</t>
-  </si>
-  <si>
-    <t>20190630-121003-</t>
-  </si>
-  <si>
-    <t>9193f51e</t>
   </si>
   <si>
     <t>Hidden layers LSTM</t>
@@ -378,12 +329,6 @@
     <t>Results</t>
   </si>
   <si>
-    <t>20190701-220434-</t>
-  </si>
-  <si>
-    <t>053b2e56</t>
-  </si>
-  <si>
     <t>Dropout in the fine tuned VGG</t>
   </si>
   <si>
@@ -424,9 +369,6 @@
   </si>
   <si>
     <t>a07139fe</t>
-  </si>
-  <si>
-    <t>VGG20</t>
   </si>
   <si>
     <t>VGG21</t>
@@ -986,7 +928,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1028,6 +970,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1179,118 +1122,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88901</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3536950" y="222251"/>
-          <a:ext cx="3505200" cy="2628900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>21166</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>537631</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7234766" y="184151"/>
-          <a:ext cx="3564465" cy="2673349"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>556683</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199A8F7F-6DE2-4485-90AB-C876BA9B708B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,8 +1148,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4775200" y="3130550"/>
-          <a:ext cx="4214283" cy="2139950"/>
+          <a:off x="4000500" y="2981325"/>
+          <a:ext cx="6610350" cy="1876425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1334,8 +1184,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>We keep the previous configuration but we</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Repetimos el modelo anterior cambiando el tamañao de step de la learning rate por uno más pequeño.</a:t>
+            <a:t> do a training with more data (25000 vs 1000).</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1344,7 +1198,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>La loss emejora de forma sustancial aunque la forma de L hace pensar que no está superando bien el umbral de activación. De ahí que sea plano ( eso es que no aprende???) . Podría ser un vanishing gradient?</a:t>
+            <a:t>We compare with the previous result and the best model until now, VGG18.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1353,29 +1207,211 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>La accuracy mejora también pero no vemos bien porqué???</a:t>
+            <a:t>We see improvement in accuracy and loss. But we would need more epochs to see if it really converges to better values or it is just converging faster. We only had time to launch 10 epochs.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Validation curves show a strage behaviour. We would need more tests to determine.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>We have used this model for interference, and results are much better than any previous model (as expected).</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1305390</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>86029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34B22E6-4A2F-4418-B467-C2BB1074DE3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5143500"/>
+          <a:ext cx="3334215" cy="2181529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>248110</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2A1401-0E13-454B-955B-4A2212CBD2BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="5143500"/>
+          <a:ext cx="3296110" cy="2229161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>591018</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>162232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B901E974-C861-4C80-82D4-4E473F28DDD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="5010150"/>
+          <a:ext cx="3353268" cy="2200582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>181426</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>124135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DC50AB-D0A1-4DD0-A73F-9AB996C37BE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191750" y="4953000"/>
+          <a:ext cx="3229426" cy="2219635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1465,10 +1501,272 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8665200-2609-4328-AD57-67C803CB2DAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305175" y="3238500"/>
+          <a:ext cx="7620000" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>We add image standarization to our data ingestion model.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>The results are very simlar, but appear to be slightly better in validation accuracy. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>We will keep this improvement, and try to test it with more data.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581482</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{314AE59B-87F4-41E0-9BE1-9B61F68ED11B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4381500"/>
+          <a:ext cx="3277057" cy="2162477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>181432</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1E07EE-2261-4F1A-93D5-6602A60DF34F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257550" y="4381500"/>
+          <a:ext cx="3277057" cy="2229161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>429076</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>162240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05335F12-C6CF-4F32-B663-43B41EAFBFE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="4381500"/>
+          <a:ext cx="3229426" cy="2257740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>67128</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E30F1B-DB48-4EF4-8BFA-2761D416C796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877425" y="4381500"/>
+          <a:ext cx="3248478" cy="2191056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1558,118 +1856,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>475488</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>43879</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3270250" y="196850"/>
-          <a:ext cx="3479038" cy="2609279"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>169333</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>146051</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>153989</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7052733" y="190500"/>
-          <a:ext cx="3634318" cy="2725739"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>347133</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B2B176-D58B-4A94-9168-4985F9631961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,8 +1882,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4845050" y="2965450"/>
-          <a:ext cx="4214283" cy="2139950"/>
+          <a:off x="3305175" y="3238500"/>
+          <a:ext cx="7620000" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1714,7 +1919,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Abandonamos la loss HINGE y volvemos a la crossentropy. </a:t>
+            <a:t>We change the activation function in the merge from tanh to relu. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1723,7 +1928,347 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Hemos hecho un training menor , para ver si eso acelera el proceso ya que entre esta y la anterior, hemos tenido un trainig abortado porque iba muy lento.</a:t>
+            <a:t>(RELU is gray in the graphs)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>48084</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F670ADA-D8A1-410F-9A25-B696CE7AA064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="4381500"/>
+          <a:ext cx="3286584" cy="2172003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>286203</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF18AFAF-F3D9-4E7A-A394-A5A1274E2DF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="4391025"/>
+          <a:ext cx="3248478" cy="2219635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>562438</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71331B5E-51C8-4A5B-9CBB-CAB7A07B09E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6648450" y="4410075"/>
+          <a:ext cx="3315163" cy="2181529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>210005</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>162236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF35EA0C-6042-4482-85B7-047CA777BA42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10010775" y="4410075"/>
+          <a:ext cx="3258005" cy="2229161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>465963</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>110554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3111500" y="79375"/>
+          <a:ext cx="3479038" cy="2698179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>521758</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>498476</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6646333" y="0"/>
+          <a:ext cx="3634318" cy="2814639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1546E8C9-7458-4518-9656-480254BC3B60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="2838450"/>
+          <a:ext cx="7620000" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>As part of the tests to solve the training freezing the computer we try smaller batches. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1732,13 +2277,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>La idea era ver si el tamaño de batch size menor mejoraba el tema, pero no ha variado ni la CPU ni la GPU respecto a los batches de 50. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Lo que la lía parda es el CROP.</a:t>
+            <a:t>The process runs much faster, but in the case of cropping still freezes the computer (see VGG 11). </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1747,36 +2286,172 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Volvemos a los batches de 50.</a:t>
+            <a:t>The results are slightly worse than with a 50 samples batch (though 5 times faster). Also the validation accuracy is much more unstable, due to the fact that each batch is too small to be representative.</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>The only real advantage is that with that smaller size we are able to run the training in a computer with much less GPU memory, which is good for debugging purposes out of the cloud. We go back to a batch size of 50 for all other tests.</a:t>
+          </a:r>
           <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>124281</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12C246D-143C-4CAC-928C-F1AB2782C4A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="4505325"/>
+          <a:ext cx="3267531" cy="2200582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495763</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76506</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674A9ABF-58D5-463E-9304-404940E03C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3914775" y="4552950"/>
+          <a:ext cx="3315163" cy="2191056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>210005</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>143187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331C0EF5-80AD-4483-AA5F-4D0EE28BB307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="4572000"/>
+          <a:ext cx="3258005" cy="2238687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>150283</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160866</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>134056</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>14110</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>497416</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1791,8 +2466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5611283" y="2427111"/>
-          <a:ext cx="4231217" cy="2356555"/>
+          <a:off x="4489449" y="2360083"/>
+          <a:ext cx="7702550" cy="3175000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1828,24 +2503,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Una cambiado el crop (</a:t>
+            <a:t>Unti</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> en lugar del reshape) para ver que pasa:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Observamos que el desempeño</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> de la CPU empeora con el sucederse de los batches, mientras que la GPU no se entera.</a:t>
+            <a:t>l this test, our data ingestion is resizing the images to (224,224) to fit in the VGG without taking the image aspect ratio into consideration. We try to apply a cropping and and resize to preserve the aspect ratio, to see if this helps the network to better understand the images.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1854,7 +2516,20 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>La maquina se queda frita y tenemos que matar el proceso de training. Pillamos las curvas del Tensorboard directamente porque al no acabar el proceso no las crea en fichero.</a:t>
+            <a:t>The data input process takes longer at each batch, until it finally hoggs completely the computer RAM. We have to kill the process. That's the reason we are getting the graphics only from Tensorboard.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>We speculate if the additional cropping</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> process per image could be the problem, and we reduce the batch size to try to ease the CPU work. It runs faster at the beggining as expected, and survives slightly longer, but the compurter is finally frozen anyway and we must kill the process manually. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1863,7 +2538,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Despuès de lanzar el proceso un par de veces, llegamos a la conclusión de que podría ser por los batches que tiene que cargar la CPU ya que al hacer el crop y trabajar con batches de 50 le lleva su tiempo tener el batch preparado para pasarlo a la CPU</a:t>
+            <a:t>We get to the conclusion that there must be a memory leak in the way we are handling the cropping, but we have no time to investigate further.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1872,7 +2547,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>SOl. reducir el tamaño de batch a 10, en lugar de 50 por ejemplo.</a:t>
+            <a:t>Additionally it is interesting to note that the loss and accuracy did not seem to improve but to worsen. It could be interesting to investigate if this could be due to the fact that the image with the correct aspect ratio has less pixels with information, eventhough this information is better. Or it could be due to the fact that we are using a pretrained VGG with 13 frozen layers, and probably this VGG has been trained over images resized "forcedly".</a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
@@ -1882,16 +2557,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>14110</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28222</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>194027</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>49388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>183444</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>93180</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>363360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1914,8 +2589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762499" y="211666"/>
-          <a:ext cx="3203223" cy="2082847"/>
+          <a:off x="4522610" y="49388"/>
+          <a:ext cx="3238500" cy="2160458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1926,15 +2601,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>278732</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3565</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>162278</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1958,8 +2633,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8389056" y="183444"/>
-          <a:ext cx="3312621" cy="2180167"/>
+          <a:off x="7736417" y="0"/>
+          <a:ext cx="3347898" cy="2257778"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1971,20 +2646,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>176388</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>59971</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>21166</xdr:rowOff>
+      <xdr:rowOff>137584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>77611</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1999,8 +2674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5192888" y="2956277"/>
-          <a:ext cx="5856112" cy="2624667"/>
+          <a:off x="2790471" y="3185584"/>
+          <a:ext cx="11412362" cy="1206499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2036,11 +2711,23 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>En este caso hemos doblado</a:t>
+            <a:t>We double the</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> el nº de layers LSTM y hemos corrido el modelo para ver si mejorarba en algo la accuracy /loss.</a:t>
+            <a:t> number of LSTM layers, to see if we could improve the accuracy/loss.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>The test loss appears to follow the train loss, which looks good. But the overall result is worse if we compare it with the model with just half LSTM layers. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>The fact that increasing the number of layers increases a lot the total number of learning parameters, while we still have the same data to learn from, makes the loss stall too early, without achieving prior results.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2049,25 +2736,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>La curva de LOSS de test ha seguido como en paralelo la de train al final pero el resultado es peor en comparación con el modelo con la mitad de LSTM probablemente debido al aumento de complejidad del modelo, que de forma relativa hace disminuir la cantidad dedatos para aprender, resultando en una especie de "overfitting" raro.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Por el contrario las predicciónes de la inferencia, empiezan a salir  ¿¿mejor. ??</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Si tenemos tiempo intentar probar este modelo con todo el fulldataset.</a:t>
+            <a:t>If we had time it would've been interesting to test this model with the full dataset.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2162,30 +2831,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>52915</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>528561</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76503</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0505560E-5D09-4F07-93BE-51EFC7593446}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,15 +2858,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7645400" y="203201"/>
-          <a:ext cx="3843865" cy="2882899"/>
+          <a:off x="1238250" y="4572000"/>
+          <a:ext cx="3248478" cy="2172003"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2213,23 +2877,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>226483</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198364</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114608</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{326299AC-C0EC-40E2-A386-9DF83D3F9E6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,15 +2902,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3517900" y="209551"/>
-          <a:ext cx="3877733" cy="2908300"/>
+          <a:off x="4572000" y="4572000"/>
+          <a:ext cx="3267531" cy="2210108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2255,105 +2919,54 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>243416</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>112184</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>33161</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>441781</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>84973</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20E3546-5204-4B4E-9DA7-3C3DA14551FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5848350" y="3276600"/>
-          <a:ext cx="3280834" cy="1176161"/>
+          <a:off x="7884583" y="4561417"/>
+          <a:ext cx="3267531" cy="2191056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Congelando 7  layers del VGG no se parecia diferencia en la Loss respecto</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> a congelando 8</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Las curvas son parecidas</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> a partir de cierto nº de frozen layers.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2457,16 +3070,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>35277</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>35276</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>7056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>169332</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>155221</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>592666</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2481,8 +3094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4106333" y="3492500"/>
-          <a:ext cx="4988277" cy="2532943"/>
+          <a:off x="1273526" y="3626556"/>
+          <a:ext cx="7563557" cy="776111"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2517,49 +3130,163 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-ES"/>
-            <a:t>It could be that the number of training epochs is not large enough for the smaller learning rate.</a:t>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Trying again to reduce</a:t>
           </a:r>
-          <a:br>
-            <a:rPr lang="es-ES"/>
-          </a:br>
-          <a:br>
-            <a:rPr lang="es-ES"/>
-          </a:br>
           <a:r>
-            <a:rPr lang="es-ES"/>
-            <a:t>This could result in the system failing to reach the optimal solution. So a small learning rate means more iterations and vice versa.</a:t>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> the learning rate, now with 13 VGG layers frozen, worsens the results.</a:t>
           </a:r>
-          <a:br>
-            <a:rPr lang="es-ES"/>
-          </a:br>
-          <a:br>
-            <a:rPr lang="es-ES"/>
-          </a:br>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
           <a:r>
-            <a:rPr lang="es-ES"/>
-            <a:t>It could also be that smaller step sizes results in the NN learning a more exact solution hence the overfitting. A moderate learning rate would overshoot such points never settling but oscillating about such a point hence likely to generalize well.</a:t>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>The results are very similar to the same small learning rate with 4 VGG layers frozen.</a:t>
           </a:r>
-          <a:br>
-            <a:rPr lang="es-ES"/>
-          </a:br>
-          <a:br>
-            <a:rPr lang="es-ES"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="es-ES"/>
-            <a:t>So yes the captured details must be related to the learning rate, but not to a large extent.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>539145</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679AA908-7CAA-4852-BEA2-E504CCAA607E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="4572000"/>
+          <a:ext cx="3248478" cy="2181529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>529167</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161330</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>143187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCD5E6B-8131-4FD4-A751-5D4D9843B9C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476750" y="4572000"/>
+          <a:ext cx="3315163" cy="2238687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>148168</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>346532</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>106140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C494C6A9-2931-410B-A876-69C830DC2B15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7778751" y="4582584"/>
+          <a:ext cx="3267531" cy="2191056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2652,7 +3379,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2757,100 +3484,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>596899</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>588430</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7905749" y="266700"/>
-          <a:ext cx="3039531" cy="2279649"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>137582</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4305300" y="260350"/>
-          <a:ext cx="3141132" cy="2355849"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2942,16 +3576,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>246944</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14111</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>119945</xdr:rowOff>
+      <xdr:rowOff>14111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>493889</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2966,8 +3600,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4310944" y="3605389"/>
-          <a:ext cx="3280834" cy="1919111"/>
+          <a:off x="1252361" y="3633611"/>
+          <a:ext cx="7373056" cy="938389"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3003,20 +3637,20 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Congelando 8  layers del VGG la mejora en la Loss en notable.</a:t>
+            <a:t>Freezing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> 8 layers of the VGG network instead of 4 improves Loss and accuracy noticeably.</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Pero a</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> partir de aquí, congelar más capas, sale más o menos el mismo resultado</a:t>
+            <a:t>Freezing more layers (10, 13) gives similar results, with no further improvement.</a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
@@ -3024,10 +3658,142 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>548672</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0219AD35-7DFF-4F58-8593-39E2E9822527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="4762500"/>
+          <a:ext cx="3258005" cy="2172003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>550334</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106286</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>131547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B752D99-DACC-4894-9F03-B0B24EF379DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4497917" y="4741333"/>
+          <a:ext cx="3238952" cy="2248214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>262921</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>136832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8062BF-B57E-4850-9347-F75167586550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7704666" y="4794250"/>
+          <a:ext cx="3258005" cy="2200582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3221,7 +3987,380 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596899</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>588430</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905749" y="266700"/>
+          <a:ext cx="3039531" cy="2279649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>137582</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="260350"/>
+          <a:ext cx="3141132" cy="2355849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F67036-12D4-4AD1-A841-FEED11C672A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="3048000"/>
+          <a:ext cx="6610350" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>We add the batch normalisation to our</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> model.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>We compare with the best model until now, VGG18.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>The results are worse, except with validation loss, that suggests that with more training could improve previous results.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>It is possible that with a bigger data set the results were better.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1267285</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>86029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{911248B1-B02C-4703-A4D6-35BB98A99492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5143500"/>
+          <a:ext cx="3296110" cy="2181529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219539</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21416992-E720-4D80-B723-1AC97BCA8BB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="4914900"/>
+          <a:ext cx="3324689" cy="2229161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514814</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>124133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD3734D-A876-4C2A-A507-558C8396ED3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="4962525"/>
+          <a:ext cx="3324689" cy="2210108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190952</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA3A707-43D6-4988-A4F4-2E6012673547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191750" y="4953000"/>
+          <a:ext cx="3238952" cy="2210108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3314,7 +4453,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3404,30 +4543,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15522</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33161</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>107893</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>172290</xdr:rowOff>
+      <xdr:colOff>270347</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>75459</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54437A0-C4FF-4D43-A79F-A9A3F9045149}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3436,15 +4570,59 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3246966" y="216605"/>
-          <a:ext cx="4339816" cy="3257685"/>
+          <a:off x="4497917" y="4656666"/>
+          <a:ext cx="3381847" cy="2276793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>588890</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0189597B-7515-442C-ABD5-29477409F18A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="4688416"/>
+          <a:ext cx="3277057" cy="2172003"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3456,22 +4634,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>206022</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38807</xdr:rowOff>
+      <xdr:colOff>275167</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>148165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>338668</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>23955</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>473532</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>72273</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F94EB8-0AC3-4A15-8578-BFC9D67E4701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3480,15 +4658,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7684911" y="222251"/>
-          <a:ext cx="4380090" cy="3287148"/>
+          <a:off x="7884584" y="4720165"/>
+          <a:ext cx="3267531" cy="2210108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3499,23 +4677,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>70555</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>74084</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>28222</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>599722</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>112888</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
+        <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D0ABB9-2939-4A8D-B6C7-A3FFBF91EC98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3523,8 +4701,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5729111" y="3697111"/>
-          <a:ext cx="2349500" cy="1185333"/>
+          <a:off x="1312334" y="3810000"/>
+          <a:ext cx="8583083" cy="772583"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3560,20 +4738,23 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Este está</a:t>
+            <a:t>Comparison</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> repetido. = al 34e201c9 </a:t>
+            <a:t> of different learning rates.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Hay que eliminarlo.</a:t>
+            <a:t>Lowering the learning rate from 1e-3 to 1e-4 improves results. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Lowering it further to 1e-5. Though it could be that it did not converge fully, loss is marginally worse. And Validation loss bounces in what could be overfitting. </a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
@@ -3584,7 +4765,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3767,6 +4948,195 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27714D1C-5372-43F7-813A-2EDDBD2F412D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="2676524"/>
+          <a:ext cx="6610350" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>We add the parametrisation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> of the Dropout in the VGG fine tunning and also in the merged model. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>We do to quick tests with batch size 20 (for speed) to see if a lower dropout allows the network to learn more. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>The network with slightly less dropout behaves slightly better. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>It would be interesting to do further tests, with more data, epochs and a bigger batch size.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>105230</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133656</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B46151-79A0-4514-B388-56AC39391E7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="4419600"/>
+          <a:ext cx="3258005" cy="2191056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438615</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A08DC32-90B3-4F93-88D6-E8C02F3E7BD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115175" y="4476750"/>
+          <a:ext cx="3334215" cy="2191056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3860,103 +5230,103 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>44451</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>88901</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F935331-AB0A-45A4-AD06-3D9A1A93A5F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4083050" y="228601"/>
-          <a:ext cx="3251200" cy="2438400"/>
+          <a:off x="3962400" y="2857500"/>
+          <a:ext cx="6610350" cy="1212850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>224365</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7740650" y="285751"/>
-          <a:ext cx="3259665" cy="2444749"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>We add the parametrisation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> of the Dropout in the VGG fine tunning and also in the merged model. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>We do to quick tests with batch size 20 (for speed) to see if a lower dropout allows the network to learn more. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>See VGG22 for comparison.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4048,16 +5418,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>232833</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4072,8 +5442,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5632450" y="3340100"/>
-          <a:ext cx="4436533" cy="2139950"/>
+          <a:off x="3914775" y="2901950"/>
+          <a:ext cx="6610350" cy="1212850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4109,12 +5479,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Hacemos</a:t>
+            <a:t>We keep all the parameters of the previous model, the best until now, but changing the activation function of the merged network</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> un training con un mix de los mejores parámetros que hemos tenidos ahora, pero cambiando la función de activación por u na RELU en lugar de una TANH.</a:t>
+            <a:t> for a RELU (instead of a TANH).</a:t>
           </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
@@ -4122,30 +5493,194 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Sería identico al VGG-7, excepto por la función de activación y parece que mejora ligeramente la Loss y va por debajo de la del VGG-7 y querría seguir bajando.</a:t>
+            <a:t>The beahaviour is very similar, specially the loss. But the accuracy seems to be ascending while the previous model it was more flattened. It might just be a glitch, but it would be interesting to test for more epochs.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>La accuracy es ascendente, mientras que en la VGG se queda plana, por lo que la idea sería hacer más epochs para ver si a tendencia mejora aún más.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29035</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52CC23EC-76F8-44EA-88CB-3B09A909BFB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4572000"/>
+          <a:ext cx="3296110" cy="2172003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>181424</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>162235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1B39E1-170A-4399-9F4F-6CBF55174FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="4419600"/>
+          <a:ext cx="3219899" cy="2219635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>448130</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08ECA8D-1215-403E-B6BE-2B80FC7F4A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553200" y="4486275"/>
+          <a:ext cx="3258005" cy="2191056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533840</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14C0ACF-2527-4EDA-8623-538293DC3E77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9791700" y="4438650"/>
+          <a:ext cx="3153215" cy="2191056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4235,10 +5770,277 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3729B589-26E9-4F6A-AE10-EAC8BB4FB80B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305175" y="3057525"/>
+          <a:ext cx="7467600" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>We return to categorical loss. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>We halve the LSTM number of layers, and we also halve the number of Fully Connected layers after the merge, to reduce the number of parameters to learn. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Although the absolute differences are small, the model behaves clearly better.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>461</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{673E16C3-25A1-4386-BB6A-C913FDF973F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4114800"/>
+          <a:ext cx="3305636" cy="2219635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>210003</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F30E2E-7561-4665-9E72-210CFC11A9AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="4086225"/>
+          <a:ext cx="3248478" cy="2181529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324303</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>181279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484D4A65-7380-476F-A0C2-FF1EEFD75412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="4095750"/>
+          <a:ext cx="3248478" cy="2181529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476706</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{083FA94E-0554-4E8A-9911-CB00327F9E7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9658350" y="4133850"/>
+          <a:ext cx="3267531" cy="2200582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4330,15 +6132,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>556683</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>566208</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4354,14 +6156,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5156200" y="3130550"/>
-          <a:ext cx="4214283" cy="2139950"/>
+          <a:off x="3219450" y="3171825"/>
+          <a:ext cx="4214283" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -4391,11 +6193,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Repetimos el modelo anterior cambiando el tamañao de step de la learning rate por uno mucho más pequeño (1e-5). Para ver si mejoraba el modelo anterior</a:t>
+            <a:t>We repeat the previous model, lowering further the learning rate step.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
@@ -4403,7 +6202,335 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Vemos que las curvas son raras. Preguntar porque....!!!</a:t>
+            <a:t>The loss and accuray plots are not what we would expect. Is as if it almost did not lear and started overfitting almost since the first epoch.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>86185</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC10F551-1FA2-4985-AD3F-0960C12E876B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4381500"/>
+          <a:ext cx="3296110" cy="2172003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200478</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67ABA0FE-6E39-4465-99DC-8776A73B20C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209925" y="4314825"/>
+          <a:ext cx="3248478" cy="2200582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352876</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1294D91A-A8C7-4732-AABD-24025DD6683A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="4324350"/>
+          <a:ext cx="3229426" cy="2200582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3536950" y="222251"/>
+          <a:ext cx="3505200" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>21166</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537631</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7234766" y="184151"/>
+          <a:ext cx="3564465" cy="2673349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="3076575"/>
+          <a:ext cx="6057900" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>We repeat the previous model but reducing the learning rate.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>The loss improves substantially, as if it reached a local minimum really fast.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>But the L shape makes us think it maybe did not pass the activation thereshold. Could this be a vanishing gradient?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Accuracy is improved, but we do not see why.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4417,6 +6544,182 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476709</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>143182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FC29B1-8ADE-40F9-82FD-DD7EB3572F8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4610100"/>
+          <a:ext cx="3286584" cy="2200582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>143334</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48FC3CC-178C-4D37-8E9F-8AD43B81301E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="4610100"/>
+          <a:ext cx="3286584" cy="2210108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419563</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87685317-5404-4AF7-868B-6D7FDFF14CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="4648200"/>
+          <a:ext cx="3315163" cy="2229161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114765</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12160CC-8FB2-4E5A-9F28-5EEC7FD69C6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953625" y="4552950"/>
+          <a:ext cx="3334215" cy="2172003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4520,10 +6823,10 @@
       <xdr:rowOff>35278</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>594783</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>182033</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4538,8 +6841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4818944" y="3153834"/>
-          <a:ext cx="4214283" cy="2348088"/>
+          <a:off x="4741333" y="3273778"/>
+          <a:ext cx="6265334" cy="1943805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4575,17 +6878,27 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Quitamos el</a:t>
+            <a:t>We change the</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> CROP.</a:t>
+            <a:t> loss function from categorical </a:t>
           </a:r>
-        </a:p>
-        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>entropy</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Hacemos varios cambios para ver si mejora mucho o que hace....y luego ir ajustando.</a:t>
+            <a:t> to categorical hinge. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4594,19 +6907,17 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Ponemos Image Standarization</a:t>
+            <a:t>We try first with learning rate 1e-3.</a:t>
           </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Ponemos categorical hinge en lugar de crossentropy.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>Aumentamos el tamaño de step del learning rate.</a:t>
+            <a:t>The loss worsens, specially in validation, with rebounds. This could be due to the size of the learning rate, bouncing out of local minima.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4615,7 +6926,16 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>La loss empeora en forma de rebotes seguramente debido a que al aumentar el tamaño de la learning rate , rebota entorno a un mínimo local.</a:t>
+            <a:t>We can not compare loss values with previous experiments, as we changed the function. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>The accuracy is lower, and in validation it is very unstable.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4897,11 +7217,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G42" sqref="G42"/>
+      <selection pane="topRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4913,106 +7233,100 @@
     <col min="13" max="16384" width="19.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="18"/>
       <c r="H1" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="M2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="O2" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -5059,13 +7373,10 @@
         <v>25</v>
       </c>
       <c r="P3" s="9">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -5103,22 +7414,19 @@
         <v>50</v>
       </c>
       <c r="M4" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N4" s="10">
         <v>20</v>
       </c>
-      <c r="O4" s="10">
-        <v>20</v>
+      <c r="O4" s="9">
+        <v>50</v>
       </c>
       <c r="P4" s="9">
         <v>50</v>
       </c>
-      <c r="Q4" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -5167,11 +7475,8 @@
       <c r="P5" s="9">
         <v>25000</v>
       </c>
-      <c r="Q5" s="9">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -5197,13 +7502,13 @@
         <v>8</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>8</v>
@@ -5220,11 +7525,8 @@
       <c r="P6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -5273,11 +7575,8 @@
       <c r="P7" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -5315,22 +7614,19 @@
         <v>13</v>
       </c>
       <c r="M8" s="9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N8" s="9">
+        <v>8</v>
+      </c>
+      <c r="O8" s="9">
         <v>13</v>
-      </c>
-      <c r="O8" s="9">
-        <v>8</v>
       </c>
       <c r="P8" s="9">
         <v>13</v>
       </c>
-      <c r="Q8" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
@@ -5355,10 +7651,10 @@
       <c r="H9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K9" s="9" t="s">
@@ -5379,11 +7675,8 @@
       <c r="P9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -5432,11 +7725,8 @@
       <c r="P10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -5462,10 +7752,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="K11" s="12">
         <v>1.0000000000000001E-5</v>
@@ -5485,11 +7775,8 @@
       <c r="P11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -5538,11 +7825,8 @@
       <c r="P12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
@@ -5591,11 +7875,8 @@
       <c r="P13" s="9">
         <v>96</v>
       </c>
-      <c r="Q13" s="9">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -5644,13 +7925,10 @@
       <c r="P14" s="9">
         <v>512</v>
       </c>
-      <c r="Q14" s="9">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="9">
         <v>6</v>
@@ -5688,7 +7966,7 @@
       <c r="M15" s="10">
         <v>3</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="9">
         <v>3</v>
       </c>
       <c r="O15" s="9">
@@ -5697,11 +7975,8 @@
       <c r="P15" s="9">
         <v>3</v>
       </c>
-      <c r="Q15" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
@@ -5750,11 +8025,8 @@
       <c r="P16" s="9">
         <v>1024</v>
       </c>
-      <c r="Q16" s="9">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
@@ -5803,66 +8075,60 @@
       <c r="P17" s="9">
         <v>3</v>
       </c>
-      <c r="Q17" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="9" t="b">
         <v>0</v>
@@ -5909,13 +8175,10 @@
       <c r="P19" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="Q19" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -5948,381 +8211,357 @@
       <c r="P20" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q20" s="9" t="b">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" s="9" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="P25" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q25" s="9" t="b">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" s="9" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="P26" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q26" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="O27" s="9">
+        <v>20</v>
       </c>
       <c r="P27" s="9">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="9">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
@@ -6347,11 +8586,11 @@
       <c r="H29" s="9">
         <v>3.78</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="9">
         <v>1.01</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="K29" s="9">
         <v>2.56</v>
@@ -6360,24 +8599,21 @@
         <v>3.2</v>
       </c>
       <c r="M29" s="9">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N29" s="9">
         <v>3.4</v>
       </c>
       <c r="O29" s="9">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="P29" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="Q29" s="9">
         <v>3.2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B30" s="9">
         <v>0.22</v>
@@ -6400,11 +8636,11 @@
       <c r="H30" s="9">
         <v>0.24</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="9">
         <v>0.23</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="K30" s="9">
         <v>0.12</v>
@@ -6413,24 +8649,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="M30" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O30" s="9">
         <v>0.27</v>
-      </c>
-      <c r="N30" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="O30" s="9">
-        <v>0.28999999999999998</v>
       </c>
       <c r="P30" s="9">
         <v>0.27</v>
       </c>
-      <c r="Q30" s="9">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B31" s="9">
         <v>103</v>
@@ -6453,11 +8686,11 @@
       <c r="H31" s="9">
         <v>19</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="9">
         <v>105</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="K31" s="9">
         <v>107</v>
@@ -6466,22 +8699,19 @@
         <v>103</v>
       </c>
       <c r="M31" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N31" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O31" s="9">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="P31" s="9">
-        <v>120</v>
-      </c>
-      <c r="Q31" s="9">
         <v>2234</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -6493,8 +8723,8 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="Q32" s="9" t="s">
-        <v>109</v>
+      <c r="P32" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
@@ -6531,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6539,7 +8769,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6571,7 +8801,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6611,7 +8841,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6640,7 +8870,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
@@ -6664,15 +8894,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
@@ -6680,7 +8910,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="b">
         <v>1</v>
@@ -6693,191 +8923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6891,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6899,7 +8949,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7000,7 +9050,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -7024,15 +9074,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -7040,7 +9090,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -7052,12 +9102,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7071,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7079,7 +9129,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7180,7 +9230,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
@@ -7204,15 +9254,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
@@ -7220,10 +9270,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -7232,12 +9282,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B20"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7252,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7260,7 +9310,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7361,7 +9411,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
@@ -7385,15 +9435,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
@@ -7401,7 +9451,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="4" t="b">
         <v>0</v>
@@ -7413,12 +9463,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7433,10 +9483,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -7444,10 +9494,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7584,7 +9634,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
@@ -7617,23 +9667,23 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="1" t="b">
+      <c r="A19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="b">
+      <c r="C19" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7643,12 +9693,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:B18"/>
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7662,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7670,7 +9720,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7771,7 +9821,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
         <v>12</v>
@@ -7795,10 +9845,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -7807,176 +9857,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B17"/>
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8127,12 +10013,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8146,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8154,7 +10040,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8283,243 +10169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="2">
-        <v>500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -8675,12 +10325,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B17"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8694,7 +10344,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8702,7 +10352,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8831,12 +10481,248 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="2">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8850,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8858,7 +10744,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8987,12 +10873,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9006,7 +10892,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9014,7 +10900,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9086,7 +10972,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -9143,12 +11029,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9162,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9170,7 +11056,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9299,124 +11185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -9435,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9443,7 +11212,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9477,7 +11246,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1">
         <v>11</v>
@@ -9485,7 +11254,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -9526,7 +11295,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B27"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9540,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9548,7 +11317,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9649,7 +11418,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -9673,15 +11442,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
@@ -9689,7 +11458,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>1</v>
@@ -9697,39 +11466,39 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>1</v>
@@ -9737,7 +11506,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B26" s="1" t="b">
         <v>1</v>
@@ -9745,7 +11514,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1">
         <v>20</v>
@@ -9762,7 +11531,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9776,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9784,7 +11553,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9885,7 +11654,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -9909,15 +11678,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
@@ -9925,7 +11694,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>1</v>
@@ -9933,34 +11702,34 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -9974,7 +11743,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B24"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9988,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9996,7 +11765,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10097,7 +11866,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -10121,15 +11890,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
@@ -10137,7 +11906,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>1</v>
@@ -10145,34 +11914,34 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -10182,223 +11951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10412,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10420,7 +11977,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10521,7 +12078,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -10545,15 +12102,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
@@ -10561,7 +12118,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="b">
         <v>1</v>
@@ -10569,18 +12126,18 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -10589,12 +12146,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10608,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10616,7 +12173,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10716,10 +12273,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="A15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2">
         <v>3</v>
       </c>
     </row>
@@ -10732,24 +12289,24 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
@@ -10757,7 +12314,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>1</v>
@@ -10769,12 +12326,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B20"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10788,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10796,7 +12353,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10828,7 +12385,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -10897,7 +12454,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
@@ -10921,15 +12478,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
@@ -10937,9 +12494,189 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="b">
         <v>1</v>
       </c>
     </row>
